--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
@@ -712,7 +712,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -730,7 +730,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,9 +888,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,17 +923,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -950,18 +951,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1272,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H19" activeCellId="1" sqref="E19:F29 H19:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1293,34 +1292,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1331,371 +1330,371 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>27</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>27</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="40">
+      <c r="F5" s="69"/>
+      <c r="G5" s="39">
         <f>E5-F5</f>
         <v>27</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="65"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="41">
+      <c r="A6" s="40">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>27</v>
       </c>
       <c r="E6" s="9">
         <v>27</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>27</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="44"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="66"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="41">
+      <c r="A7" s="40">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
         <v>34</v>
       </c>
       <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="44"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="66"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="41">
+      <c r="A8" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>34</v>
       </c>
       <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="66"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="41">
+      <c r="A9" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="44">
         <v>120</v>
       </c>
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="70">
         <v>7</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
         <v>113</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="66"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="41">
+      <c r="A10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>24</v>
       </c>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="71"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="66"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="41">
+      <c r="A11" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>25</v>
       </c>
       <c r="E11" s="9">
         <v>25</v>
       </c>
-      <c r="F11" s="71"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="23"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A12" s="41">
+      <c r="A12" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="82">
         <v>8</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="71"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="45"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="23"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A13" s="41">
+      <c r="A13" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>80</v>
       </c>
       <c r="E13" s="9">
         <v>80</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="70">
         <v>10</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="66"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>240</v>
       </c>
       <c r="E14" s="9">
         <v>240</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="70">
         <v>19</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>221</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="66"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="88">
+      <c r="A15" s="86">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="76">
         <v>40</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>40</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="71">
         <v>4</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="79"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="89"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="87"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1706,115 +1705,115 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <f>E5*700000</f>
         <v>18900000</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <v>43546</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <v>43550</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>43553</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="88">
         <v>778583</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="88">
         <v>896083</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="31">
         <f>F19/A$19</f>
         <v>4.7411798941798942E-2</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="88">
         <f>A19-F19</f>
         <v>18003917</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="73">
         <f>1-G19</f>
         <v>0.95258820105820108</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="76">
+      <c r="A20" s="40"/>
+      <c r="B20" s="74">
         <v>43593</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <v>43600</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="74">
         <v>43605</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="100">
         <v>1425057</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="100">
         <v>1528010</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <f>F20/A$19</f>
         <v>8.0847089947089945E-2</v>
       </c>
-      <c r="H20" s="93">
-        <f>H19-F20</f>
+      <c r="H20" s="88">
+        <f t="shared" ref="H20:I22" si="3">H19-F20</f>
         <v>16475907</v>
       </c>
-      <c r="I20" s="75">
-        <f>I19-G20</f>
+      <c r="I20" s="73">
+        <f t="shared" si="3"/>
         <v>0.87174111111111108</v>
       </c>
       <c r="J20" s="1"/>
@@ -1822,7 +1821,7 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="10">
         <v>43705</v>
       </c>
@@ -1832,30 +1831,30 @@
       <c r="D21" s="10">
         <v>43711</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="101">
         <v>832370</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="101">
         <v>904320</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <f>F21/A$19</f>
         <v>4.7847619047619049E-2</v>
       </c>
-      <c r="H21" s="93">
-        <f>H20-F21</f>
+      <c r="H21" s="88">
+        <f t="shared" si="3"/>
         <v>15571587</v>
       </c>
-      <c r="I21" s="75">
-        <f>I20-G21</f>
+      <c r="I21" s="73">
+        <f t="shared" si="3"/>
         <v>0.82389349206349205</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
@@ -1865,156 +1864,156 @@
       <c r="D22" s="10">
         <v>43718</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="103">
         <v>1090954</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="103">
         <v>1125850</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <f>F22/A$19</f>
         <v>5.956878306878307E-2</v>
       </c>
-      <c r="H22" s="93">
-        <f>H21-F22</f>
+      <c r="H22" s="88">
+        <f t="shared" si="3"/>
         <v>14445737</v>
       </c>
-      <c r="I22" s="75">
-        <f>I21-G22</f>
+      <c r="I22" s="73">
+        <f t="shared" si="3"/>
         <v>0.76432470899470895</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="73"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="50">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="49">
         <f>SUM(E19:E29)</f>
         <v>4126964</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <f>SUM(F19:F29)</f>
         <v>4454263</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <f>SUM(G19:G29)</f>
         <v>0.23567529100529103</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <f>A19-F30</f>
         <v>14445737</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <f>1-G30</f>
         <v>0.76432470899470895</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2029,12 +2028,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2043,14 +2042,14 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="99"/>
+      <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="1"/>
@@ -2061,27 +2060,27 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="96">
+      <c r="A36" s="97">
         <f>A19-F30</f>
         <v>14445737</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="68">
+      <c r="B36" s="98"/>
+      <c r="C36" s="67">
         <f>1-G30</f>
         <v>0.76432470899470895</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <f>(C36/0.8)*100</f>
         <v>95.540588624338625</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2119,113 +2118,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="95"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="53"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="53"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="53"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="53"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="52"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="53"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="53"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="52"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="53"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="53"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="57"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2233,40 +2232,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="95"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="96"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="52"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2279,23 +2278,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="94"/>
-      <c r="C59" s="95"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="96"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="94"/>
-      <c r="C66" s="95"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="96"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2303,6 +2297,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
@@ -829,8 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -926,18 +924,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -951,17 +947,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1269,10 +1273,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" activeCellId="1" sqref="E19:F29 H19:H29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1292,29 +1299,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1379,7 +1386,7 @@
       <c r="B5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="66" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="39">
@@ -1388,7 +1395,7 @@
       <c r="E5" s="39">
         <v>27</v>
       </c>
-      <c r="F5" s="69"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="39">
         <f>E5-F5</f>
         <v>27</v>
@@ -1397,17 +1404,17 @@
       <c r="I5" s="42"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="64"/>
+      <c r="L5" s="62"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="40">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="44">
@@ -1416,7 +1423,7 @@
       <c r="E6" s="9">
         <v>27</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>27</v>
@@ -1425,17 +1432,17 @@
       <c r="I6" s="43"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="65"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="40">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="44">
@@ -1444,7 +1451,7 @@
       <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1453,17 +1460,17 @@
       <c r="I7" s="43"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="65"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="44">
@@ -1472,7 +1479,7 @@
       <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1481,17 +1488,17 @@
       <c r="I8" s="43"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="65"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="44">
@@ -1500,7 +1507,7 @@
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="68">
         <v>7</v>
       </c>
       <c r="G9" s="9">
@@ -1511,17 +1518,17 @@
       <c r="I9" s="44"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="65"/>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="44">
@@ -1530,7 +1537,7 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1539,17 +1546,17 @@
       <c r="I10" s="43"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="65"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="44">
@@ -1558,7 +1565,7 @@
       <c r="E11" s="9">
         <v>25</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1567,7 +1574,7 @@
       <c r="I11" s="44"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="65"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
@@ -1575,19 +1582,19 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>8</v>
       </c>
       <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1596,7 +1603,7 @@
       <c r="I12" s="44"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="65"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
@@ -1604,10 +1611,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="44">
@@ -1616,7 +1623,7 @@
       <c r="E13" s="9">
         <v>80</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="68">
         <v>10</v>
       </c>
       <c r="G13" s="9">
@@ -1629,17 +1636,17 @@
       <c r="I13" s="44"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="65"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="81" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="44">
@@ -1648,7 +1655,7 @@
       <c r="E14" s="9">
         <v>240</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="68">
         <v>19</v>
       </c>
       <c r="G14" s="9">
@@ -1659,42 +1666,42 @@
       <c r="I14" s="44"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="65"/>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="86">
+      <c r="A15" s="84">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="74">
         <v>40</v>
       </c>
       <c r="E15" s="41">
         <v>40</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="69">
         <v>4</v>
       </c>
       <c r="G15" s="41">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="77"/>
+      <c r="L15" s="75"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="87"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1705,7 +1712,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="13"/>
@@ -1715,9 +1722,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A18" s="32" t="s">
@@ -1747,72 +1754,72 @@
       <c r="I18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="66">
+      <c r="A19" s="64">
         <f>E5*700000</f>
         <v>18900000</v>
       </c>
       <c r="B19" s="30">
         <v>43546</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="70">
         <v>43550</v>
       </c>
       <c r="D19" s="30">
         <v>43553</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="86">
         <v>778583</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="86">
         <v>896083</v>
       </c>
       <c r="G19" s="31">
         <f>F19/A$19</f>
         <v>4.7411798941798942E-2</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="86">
         <f>A19-F19</f>
         <v>18003917</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="71">
         <f>1-G19</f>
         <v>0.95258820105820108</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
       <c r="A20" s="40"/>
-      <c r="B20" s="74">
+      <c r="B20" s="72">
         <v>43593</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="72">
         <v>43600</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="72">
         <v>43605</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="87">
         <v>1425057</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="87">
         <v>1528010</v>
       </c>
       <c r="G20" s="31">
         <f>F20/A$19</f>
         <v>8.0847089947089945E-2</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="86">
         <f t="shared" ref="H20:I22" si="3">H19-F20</f>
         <v>16475907</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="71">
         <f t="shared" si="3"/>
         <v>0.87174111111111108</v>
       </c>
@@ -1831,27 +1838,27 @@
       <c r="D21" s="10">
         <v>43711</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="88">
         <v>832370</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F21" s="88">
         <v>904320</v>
       </c>
       <c r="G21" s="31">
         <f>F21/A$19</f>
         <v>4.7847619047619049E-2</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="86">
         <f t="shared" si="3"/>
         <v>15571587</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="71">
         <f t="shared" si="3"/>
         <v>0.82389349206349205</v>
       </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="14"/>
@@ -1864,26 +1871,26 @@
       <c r="D22" s="10">
         <v>43718</v>
       </c>
-      <c r="E22" s="103">
+      <c r="E22" s="90">
         <v>1090954</v>
       </c>
-      <c r="F22" s="103">
+      <c r="F22" s="90">
         <v>1125850</v>
       </c>
       <c r="G22" s="31">
         <f>F22/A$19</f>
         <v>5.956878306878307E-2</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="86">
         <f t="shared" si="3"/>
         <v>14445737</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="71">
         <f t="shared" si="3"/>
         <v>0.76432470899470895</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
@@ -1891,13 +1898,13 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1905,13 +1912,13 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1919,13 +1926,13 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1933,13 +1940,13 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1947,13 +1954,13 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1961,13 +1968,13 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
@@ -1975,11 +1982,11 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="31"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="73"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1991,11 +1998,11 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="49">
+      <c r="E30" s="102">
         <f>SUM(E19:E29)</f>
         <v>4126964</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="103">
         <f>SUM(F19:F29)</f>
         <v>4454263</v>
       </c>
@@ -2011,9 +2018,9 @@
         <f>1-G30</f>
         <v>0.76432470899470895</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
@@ -2028,12 +2035,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2042,10 +2049,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2060,12 +2067,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="97">
+      <c r="A36" s="93">
         <f>A19-F30</f>
         <v>14445737</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="67">
+      <c r="B36" s="94"/>
+      <c r="C36" s="65">
         <f>1-G30</f>
         <v>0.76432470899470895</v>
       </c>
@@ -2073,14 +2080,14 @@
         <f>(C36/0.8)*100</f>
         <v>95.540588624338625</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
@@ -2118,113 +2125,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="96"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="52"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="52"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="52"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="52"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="52"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="52"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="52"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="52"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="56"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2232,40 +2239,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="92"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="51"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="51"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2278,18 +2285,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="92"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="95"/>
-      <c r="C66" s="96"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2297,16 +2309,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="36" max="12" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -936,6 +936,26 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,26 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1278,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1299,29 +1299,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1624,11 +1624,11 @@
         <v>80</v>
       </c>
       <c r="F13" s="68">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H13" s="47" t="s">
         <v>29</v>
@@ -1895,14 +1895,33 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="71"/>
+      <c r="B23" s="10">
+        <v>43809</v>
+      </c>
+      <c r="C23" s="10">
+        <v>43818</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43833</v>
+      </c>
+      <c r="E23" s="90">
+        <v>2128893</v>
+      </c>
+      <c r="F23" s="90">
+        <v>2238094</v>
+      </c>
+      <c r="G23" s="31">
+        <f>F23/A$19</f>
+        <v>0.11841767195767196</v>
+      </c>
+      <c r="H23" s="86">
+        <f t="shared" ref="H23" si="4">H22-F23</f>
+        <v>12207643</v>
+      </c>
+      <c r="I23" s="71">
+        <f t="shared" ref="I23" si="5">I22-G23</f>
+        <v>0.645907037037037</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="1"/>
@@ -1998,25 +2017,25 @@
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="102">
+      <c r="E30" s="91">
         <f>SUM(E19:E29)</f>
-        <v>4126964</v>
-      </c>
-      <c r="F30" s="103">
+        <v>6255857</v>
+      </c>
+      <c r="F30" s="92">
         <f>SUM(F19:F29)</f>
-        <v>4454263</v>
+        <v>6692357</v>
       </c>
       <c r="G30" s="21">
         <f>SUM(G19:G29)</f>
-        <v>0.23567529100529103</v>
+        <v>0.354092962962963</v>
       </c>
       <c r="H30" s="19">
         <f>A19-F30</f>
-        <v>14445737</v>
+        <v>12207643</v>
       </c>
       <c r="I30" s="23">
         <f>1-G30</f>
-        <v>0.76432470899470895</v>
+        <v>0.645907037037037</v>
       </c>
       <c r="J30" s="61"/>
       <c r="K30" s="61"/>
@@ -2035,12 +2054,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2049,10 +2068,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2067,18 +2086,18 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="93">
+      <c r="A36" s="101">
         <f>A19-F30</f>
-        <v>14445737</v>
-      </c>
-      <c r="B36" s="94"/>
+        <v>12207643</v>
+      </c>
+      <c r="B36" s="102"/>
       <c r="C36" s="65">
         <f>1-G30</f>
-        <v>0.76432470899470895</v>
+        <v>0.645907037037037</v>
       </c>
       <c r="D36" s="20">
         <f>(C36/0.8)*100</f>
-        <v>95.540588624338625</v>
+        <v>80.73837962962962</v>
       </c>
       <c r="E36" s="76" t="s">
         <v>42</v>
@@ -2133,8 +2152,8 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="49"/>
@@ -2228,9 +2247,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="100"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="54"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2247,8 +2266,8 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="92"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="49"/>
@@ -2259,8 +2278,8 @@
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="49"/>
@@ -2271,8 +2290,8 @@
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2285,23 +2304,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="91"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="91"/>
-      <c r="C66" s="92"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2309,6 +2323,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -942,20 +942,6 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,6 +951,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1299,29 +1299,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1508,11 +1508,11 @@
         <v>120</v>
       </c>
       <c r="F9" s="68">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="44"/>
@@ -1656,11 +1656,11 @@
         <v>240</v>
       </c>
       <c r="F14" s="68">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="44"/>
@@ -2054,12 +2054,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2068,10 +2068,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="103"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2086,11 +2086,11 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="101">
+      <c r="A36" s="95">
         <f>A19-F30</f>
         <v>12207643</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="65">
         <f>1-G30</f>
         <v>0.645907037037037</v>
@@ -2152,8 +2152,8 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="94"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="49"/>
@@ -2247,9 +2247,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
       <c r="E50" s="54"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2266,8 +2266,8 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="49"/>
@@ -2278,8 +2278,8 @@
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="49"/>
@@ -2290,8 +2290,8 @@
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2304,18 +2304,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="99"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2323,11 +2328,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402EF7E-0562-4F98-8A32-69E07BA7C5AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -161,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -169,7 +177,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -942,6 +950,20 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,20 +973,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1062,6 +1070,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1097,6 +1122,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1272,56 +1314,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="103" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="24"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1329,7 +1371,7 @@
       <c r="L2" s="25"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1341,7 +1383,7 @@
       <c r="K3" s="25"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -1406,7 +1448,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="62"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="40">
         <f>A5+1</f>
         <v>2</v>
@@ -1434,7 +1476,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="40">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
@@ -1462,7 +1504,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="63"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1490,7 +1532,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="63"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1520,7 +1562,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="63"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="40">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1548,7 +1590,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="63"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1577,7 +1619,7 @@
       <c r="L11" s="63"/>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1606,7 +1648,7 @@
       <c r="L12" s="63"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1638,7 +1680,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="63"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1668,7 +1710,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="63"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1698,7 +1740,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="75"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="85"/>
       <c r="B16" s="55"/>
       <c r="C16" s="83"/>
@@ -1710,7 +1752,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="56" t="s">
         <v>10</v>
@@ -1726,7 +1768,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="57"/>
     </row>
-    <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1800,7 @@
       <c r="K18" s="58"/>
       <c r="L18" s="58"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="64">
         <f>E5*700000</f>
         <v>18900000</v>
@@ -1794,7 +1836,7 @@
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="72">
         <v>43593</v>
@@ -1827,7 +1869,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="10">
         <v>43705</v>
@@ -1860,7 +1902,7 @@
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10" t="s">
         <v>43</v>
@@ -1893,7 +1935,7 @@
       <c r="K22" s="59"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43809</v>
@@ -1926,7 +1968,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1940,7 +1982,7 @@
       <c r="K24" s="59"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1954,7 +1996,7 @@
       <c r="K25" s="59"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1968,7 +2010,7 @@
       <c r="K26" s="59"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1982,7 +2024,7 @@
       <c r="K27" s="59"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1996,7 +2038,7 @@
       <c r="K28" s="59"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2010,7 +2052,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>28</v>
       </c>
@@ -2041,7 +2083,7 @@
       <c r="K30" s="61"/>
       <c r="L30" s="61"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2053,13 +2095,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2067,11 +2109,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="97" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
@@ -2085,12 +2127,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="95">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="101">
         <f>A19-F30</f>
         <v>12207643</v>
       </c>
-      <c r="B36" s="96"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="65">
         <f>1-G30</f>
         <v>0.645907037037037</v>
@@ -2108,7 +2150,7 @@
       <c r="I36" s="76"/>
       <c r="J36" s="76"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2116,7 +2158,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2131,7 +2173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2143,7 +2185,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -2152,10 +2194,10 @@
       <c r="F40" s="48"/>
       <c r="G40" s="48"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="94"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="49"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
@@ -2165,7 +2207,7 @@
       <c r="G41" s="51"/>
       <c r="H41" s="50"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -2175,7 +2217,7 @@
       <c r="G42" s="51"/>
       <c r="H42" s="50"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="50"/>
@@ -2185,7 +2227,7 @@
       <c r="G43" s="51"/>
       <c r="H43" s="50"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
@@ -2195,7 +2237,7 @@
       <c r="G44" s="51"/>
       <c r="H44" s="50"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
@@ -2205,7 +2247,7 @@
       <c r="G45" s="51"/>
       <c r="H45" s="50"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="49"/>
       <c r="B46" s="50"/>
       <c r="C46" s="52"/>
@@ -2215,7 +2257,7 @@
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
@@ -2225,7 +2267,7 @@
       <c r="G47" s="51"/>
       <c r="H47" s="50"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
@@ -2235,7 +2277,7 @@
       <c r="G48" s="51"/>
       <c r="H48" s="50"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
       <c r="C49" s="50"/>
@@ -2245,11 +2287,11 @@
       <c r="G49" s="51"/>
       <c r="H49" s="50"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="54"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2257,7 +2299,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -2266,10 +2308,10 @@
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="94"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="I51" s="99"/>
+      <c r="J51" s="100"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="49"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2278,10 +2320,10 @@
       <c r="F52" s="51"/>
       <c r="G52" s="51"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="49"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2290,10 +2332,10 @@
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2303,24 +2345,19 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="93"/>
-      <c r="C59" s="94"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="93"/>
-      <c r="C66" s="94"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="99"/>
+      <c r="C59" s="100"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2328,6 +2365,11 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2341,12 +2383,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2355,24 +2397,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,5 л. СКО.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402EF7E-0562-4F98-8A32-69E07BA7C5AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADAC74-41CD-49AC-BB1C-42725D71FB82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>№Поз</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Маркировка</t>
   </si>
   <si>
-    <t>Кол-во,  шт</t>
-  </si>
-  <si>
-    <t>Остаток, шт</t>
-  </si>
-  <si>
     <t>Черновая форма</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>Остаточный ресурс формо-комплекта, шт.</t>
   </si>
   <si>
-    <t>Марки-ровка</t>
-  </si>
-  <si>
     <t>Остаточный ресурс формо-комплекта, %.</t>
   </si>
   <si>
@@ -145,9 +136,6 @@
     <t>Фактическое количество деталей по акту приемки, шт.</t>
   </si>
   <si>
-    <t>Кол-во брака, шт</t>
-  </si>
-  <si>
     <t>Охладитель плунжера</t>
   </si>
   <si>
@@ -164,6 +152,9 @@
   </si>
   <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Вес 240 г.</t>
   </si>
 </sst>
 </file>
@@ -315,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -339,10 +330,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -354,6 +345,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -363,22 +367,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -388,10 +390,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -401,19 +405,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -423,50 +414,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -616,61 +564,18 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -711,6 +616,41 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -731,7 +671,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,26 +684,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,68 +712,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -869,67 +787,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,41 +844,77 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1320,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1341,34 +1283,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="A1" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1379,371 +1321,363 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="M3" s="13"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="27" t="s">
+      <c r="F4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="99"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="39">
+      <c r="D5" s="36">
         <v>27</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="36">
         <v>27</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="39">
+      <c r="F5" s="57"/>
+      <c r="G5" s="36">
         <f>E5-F5</f>
         <v>27</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="62"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="98"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+      <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="B6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="39">
         <v>27</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>27</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="9">
+      <c r="F6" s="58"/>
+      <c r="G6" s="8">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>27</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="63"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
+      <c r="A7" s="37">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="B7" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8">
         <v>34</v>
       </c>
-      <c r="E7" s="9">
-        <v>34</v>
-      </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="9">
+      <c r="F7" s="58"/>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="63"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="98"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+      <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="44">
+      <c r="B8" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="39">
         <v>34</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>34</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="9">
+      <c r="F8" s="58"/>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="63"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="98"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+      <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="44">
+      <c r="B9" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="39">
         <v>120</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>120</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="58">
         <v>12</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
         <v>108</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="63"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="98"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
+      <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="44">
+      <c r="B10" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="39">
         <v>24</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>24</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="9">
+      <c r="F10" s="58"/>
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="63"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="98"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
+      <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="44">
+      <c r="B11" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="39">
         <v>25</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>25</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="9">
+      <c r="F11" s="58"/>
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="22"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
+      <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="80">
+      <c r="B12" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="68">
         <v>8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>8</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="9">
+      <c r="F12" s="58"/>
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="22"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
+      <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="44">
+      <c r="B13" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="39">
         <v>80</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>80</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="58">
         <v>18</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="H13" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="63"/>
+      <c r="H13" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+      <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="44">
+      <c r="B14" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="39">
         <v>240</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>240</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="58">
         <v>22</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="63"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="72">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="74">
+      <c r="B15" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="63">
         <v>40</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="38">
         <v>40</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="59">
         <v>4</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="38">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="75"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="98"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1754,334 +1688,376 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="I18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="J18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="64">
+      <c r="A19" s="54">
         <f>E5*700000</f>
         <v>18900000</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="27">
         <v>43546</v>
       </c>
-      <c r="C19" s="70">
+      <c r="C19" s="60">
         <v>43550</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="27">
         <v>43553</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="74">
         <v>778583</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="74">
         <v>896083</v>
       </c>
-      <c r="G19" s="31">
-        <f>F19/A$19</f>
+      <c r="G19" s="28">
+        <f t="shared" ref="G19:G25" si="3">F19/A$19</f>
         <v>4.7411798941798942E-2</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="74">
         <f>A19-F19</f>
         <v>18003917</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="61">
         <f>1-G19</f>
         <v>0.95258820105820108</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="72">
+      <c r="A20" s="37"/>
+      <c r="B20" s="62">
         <v>43593</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="62">
         <v>43600</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="62">
         <v>43605</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="75">
         <v>1425057</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="75">
         <v>1528010</v>
       </c>
-      <c r="G20" s="31">
-        <f>F20/A$19</f>
+      <c r="G20" s="28">
+        <f t="shared" si="3"/>
         <v>8.0847089947089945E-2</v>
       </c>
-      <c r="H20" s="86">
-        <f t="shared" ref="H20:I22" si="3">H19-F20</f>
+      <c r="H20" s="74">
+        <f t="shared" ref="H20:J22" si="4">H19-F20</f>
         <v>16475907</v>
       </c>
-      <c r="I20" s="71">
-        <f t="shared" si="3"/>
+      <c r="I20" s="61">
+        <f t="shared" si="4"/>
         <v>0.87174111111111108</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="102"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="10">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9">
         <v>43705</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="9">
         <v>43711</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="76">
         <v>832370</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="76">
         <v>904320</v>
       </c>
-      <c r="G21" s="31">
-        <f>F21/A$19</f>
+      <c r="G21" s="28">
+        <f t="shared" si="3"/>
         <v>4.7847619047619049E-2</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="74">
+        <f t="shared" si="4"/>
+        <v>15571587</v>
+      </c>
+      <c r="I21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.82389349206349205</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43713</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43718</v>
+      </c>
+      <c r="E22" s="78">
+        <v>1090954</v>
+      </c>
+      <c r="F22" s="78">
+        <v>1125850</v>
+      </c>
+      <c r="G22" s="28">
         <f t="shared" si="3"/>
-        <v>15571587</v>
-      </c>
-      <c r="I21" s="71">
+        <v>5.956878306878307E-2</v>
+      </c>
+      <c r="H22" s="74">
+        <f t="shared" si="4"/>
+        <v>14445737</v>
+      </c>
+      <c r="I22" s="61">
+        <f t="shared" si="4"/>
+        <v>0.76432470899470895</v>
+      </c>
+      <c r="J22" s="102"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9">
+        <v>43809</v>
+      </c>
+      <c r="C23" s="9">
+        <v>43818</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43833</v>
+      </c>
+      <c r="E23" s="78">
+        <v>2128893</v>
+      </c>
+      <c r="F23" s="78">
+        <v>2238094</v>
+      </c>
+      <c r="G23" s="28">
         <f t="shared" si="3"/>
-        <v>0.82389349206349205</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="10">
-        <v>43713</v>
-      </c>
-      <c r="D22" s="10">
-        <v>43718</v>
-      </c>
-      <c r="E22" s="90">
-        <v>1090954</v>
-      </c>
-      <c r="F22" s="90">
-        <v>1125850</v>
-      </c>
-      <c r="G22" s="31">
-        <f>F22/A$19</f>
-        <v>5.956878306878307E-2</v>
-      </c>
-      <c r="H22" s="86">
+        <v>0.11841767195767196</v>
+      </c>
+      <c r="H23" s="74">
+        <f t="shared" ref="H23" si="5">H22-F23</f>
+        <v>12207643</v>
+      </c>
+      <c r="I23" s="61">
+        <f t="shared" ref="I23:J23" si="6">I22-G23</f>
+        <v>0.645907037037037</v>
+      </c>
+      <c r="J23" s="102"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="9">
+        <v>44136</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44138</v>
+      </c>
+      <c r="D24" s="9">
+        <v>44166</v>
+      </c>
+      <c r="E24" s="78">
+        <v>640679</v>
+      </c>
+      <c r="F24" s="78">
+        <v>675302</v>
+      </c>
+      <c r="G24" s="28">
         <f t="shared" si="3"/>
-        <v>14445737</v>
-      </c>
-      <c r="I22" s="71">
+        <v>3.5730264550264547E-2</v>
+      </c>
+      <c r="H24" s="74">
+        <f t="shared" ref="H24" si="7">H23-F24</f>
+        <v>11532341</v>
+      </c>
+      <c r="I24" s="61">
+        <f t="shared" ref="I24:J24" si="8">I23-G24</f>
+        <v>0.61017677248677249</v>
+      </c>
+      <c r="J24" s="102"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9">
+        <v>44217</v>
+      </c>
+      <c r="C25" s="9">
+        <v>44221</v>
+      </c>
+      <c r="D25" s="9">
+        <v>44228</v>
+      </c>
+      <c r="E25" s="78">
+        <v>801609</v>
+      </c>
+      <c r="F25" s="78">
+        <v>996096</v>
+      </c>
+      <c r="G25" s="28">
         <f t="shared" si="3"/>
-        <v>0.76432470899470895</v>
-      </c>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10">
-        <v>43809</v>
-      </c>
-      <c r="C23" s="10">
-        <v>43818</v>
-      </c>
-      <c r="D23" s="10">
-        <v>43833</v>
-      </c>
-      <c r="E23" s="90">
-        <v>2128893</v>
-      </c>
-      <c r="F23" s="90">
-        <v>2238094</v>
-      </c>
-      <c r="G23" s="31">
-        <f>F23/A$19</f>
-        <v>0.11841767195767196</v>
-      </c>
-      <c r="H23" s="86">
-        <f t="shared" ref="H23" si="4">H22-F23</f>
-        <v>12207643</v>
-      </c>
-      <c r="I23" s="71">
-        <f t="shared" ref="I23" si="5">I22-G23</f>
-        <v>0.645907037037037</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+        <v>5.2703492063492063E-2</v>
+      </c>
+      <c r="H25" s="74">
+        <f t="shared" ref="H25" si="9">H24-F25</f>
+        <v>10536245</v>
+      </c>
+      <c r="I25" s="61">
+        <f t="shared" ref="I25:J25" si="10">I24-G25</f>
+        <v>0.55747328042328048</v>
+      </c>
+      <c r="J25" s="102">
+        <v>252</v>
+      </c>
+      <c r="K25" s="51"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="91">
+      <c r="A30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="79">
         <f>SUM(E19:E29)</f>
-        <v>6255857</v>
-      </c>
-      <c r="F30" s="92">
+        <v>7698145</v>
+      </c>
+      <c r="F30" s="80">
         <f>SUM(F19:F29)</f>
-        <v>6692357</v>
-      </c>
-      <c r="G30" s="21">
+        <v>8363755</v>
+      </c>
+      <c r="G30" s="20">
         <f>SUM(G19:G29)</f>
-        <v>0.354092962962963</v>
-      </c>
-      <c r="H30" s="19">
+        <v>0.44252671957671963</v>
+      </c>
+      <c r="H30" s="18">
         <f>A19-F30</f>
-        <v>12207643</v>
-      </c>
-      <c r="I30" s="23">
+        <v>10536245</v>
+      </c>
+      <c r="I30" s="22">
         <f>1-G30</f>
-        <v>0.645907037037037</v>
-      </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
+        <v>0.55747328042328037</v>
+      </c>
+      <c r="J30" s="103"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -2096,12 +2072,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
+      <c r="A34" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2110,15 +2086,15 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2128,27 +2104,27 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="101">
+      <c r="A36" s="83">
         <f>A19-F30</f>
-        <v>12207643</v>
-      </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="65">
+        <v>10536245</v>
+      </c>
+      <c r="B36" s="84"/>
+      <c r="C36" s="55">
         <f>1-G30</f>
-        <v>0.645907037037037</v>
-      </c>
-      <c r="D36" s="20">
+        <v>0.55747328042328037</v>
+      </c>
+      <c r="D36" s="19">
         <f>(C36/0.8)*100</f>
-        <v>80.73837962962962</v>
-      </c>
-      <c r="E36" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
+        <v>69.684160052910045</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
@@ -2170,7 +2146,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2186,113 +2162,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="82"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="50"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="50"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="50"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="50"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="50"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="50"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="50"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="50"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="54"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2300,40 +2276,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="100"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="82"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="49"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="49"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -2346,18 +2322,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="99"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="82"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2365,11 +2346,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
